--- a/biology/Zoologie/Giraffoidea/Giraffoidea.xlsx
+++ b/biology/Zoologie/Giraffoidea/Giraffoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Giraffoidea forment une super-famille de mammifères ruminants.
 </t>
@@ -511,14 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>famille Giraffidae
-Taxons fossiles
-famille † Climacoceratidae (Hamilton, 1978) Gentry, 1994
-genre † Teruelia Moya-Sola, 1987
-genre † Lorancameryx Morales et al., 1993
-genre † Propalaeoryx Stromer, 1926</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>famille Giraffidae</t>
         </is>
       </c>
     </row>
@@ -543,12 +552,53 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Taxons fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>famille † Climacoceratidae (Hamilton, 1978) Gentry, 1994
+genre † Teruelia Moya-Sola, 1987
+genre † Lorancameryx Morales et al., 1993
+genre † Propalaeoryx Stromer, 1926</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Giraffoidea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Giraffoidea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Pylogénie au sein des cétartiodactyles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des familles des Cétartiodactyles actuels (Cétacés non développés)[1],[2],[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des familles des Cétartiodactyles actuels (Cétacés non développés) :
 Sur les autres projets Wikimedia :
 Giraffoidea, sur Wikispecies
  Portail des mammifères                     
